--- a/Website_Scraping/Hotel_CodeAdded_LT_Cancun_Honolulu_April21.xlsx
+++ b/Website_Scraping/Hotel_CodeAdded_LT_Cancun_Honolulu_April21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.b.ossi\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.b.ossi\Python\Website_Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0D0A2B-88CC-436E-AFB0-FFF033FF0230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FFEFAA-483F-49CF-A332-AA2D0E09F095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lamezia Terme" sheetId="1" r:id="rId1"/>
@@ -1817,6 +1817,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
